--- a/Vjezbe/PS_Predavanja_Vjezbe_10.xlsx
+++ b/Vjezbe/PS_Predavanja_Vjezbe_10.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\haris\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\haris\Desktop\PS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A06DDCFC-09CF-41D9-8757-976DB5F1242B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50FC00E2-E210-4266-BA2C-5D451196FD5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{AF06BF98-E017-435A-AED6-C4D26BFBDE76}"/>
   </bookViews>
@@ -19,7 +19,7 @@
   </sheets>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId4"/>
+    <pivotCache cacheId="15" r:id="rId4"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -423,7 +423,7 @@
   </si>
   <si>
     <r>
-      <t>R</t>
+      <t>Koeficijent korelacije je samo kod linearne regresione prave korijen R</t>
     </r>
     <r>
       <rPr>
@@ -448,7 +448,7 @@
         <charset val="238"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> je samo kod linearne regresione prave kvadrat koeficijenta korelacije, inace kod ostalih se racuna funkcijom CORREL.</t>
+      <t>, inace se racuna sa funkcijom CORREL.</t>
     </r>
   </si>
 </sst>
@@ -719,12 +719,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -735,6 +729,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -6910,7 +6910,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{723FE66A-EF30-49DF-A023-633F89DE35EC}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{723FE66A-EF30-49DF-A023-633F89DE35EC}" name="PivotTable1" cacheId="15" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A4:B11" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="21">
     <pivotField dataField="1" showAll="0">
@@ -19358,8 +19358,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71C7BB48-D105-4F18-BFA6-B27EDEACD4A0}">
   <dimension ref="A1:Y47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C42" sqref="C42"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="W19" sqref="W19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19411,14 +19411,14 @@
       <c r="B4" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="E4" s="27" t="s">
+      <c r="E4" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="F4" s="28"/>
-      <c r="G4" s="29"/>
-      <c r="H4" s="29"/>
-      <c r="I4" s="29"/>
-      <c r="J4" s="30"/>
+      <c r="F4" s="26"/>
+      <c r="G4" s="27"/>
+      <c r="H4" s="27"/>
+      <c r="I4" s="27"/>
+      <c r="J4" s="28"/>
       <c r="N4" s="20" t="s">
         <v>93</v>
       </c>
@@ -19546,6 +19546,9 @@
       <c r="F11" s="10">
         <v>26</v>
       </c>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="P12" s="7"/>
     </row>
     <row r="13" spans="1:25" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
@@ -19660,8 +19663,8 @@
       <c r="O22" s="20"/>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A23" s="25"/>
-      <c r="B23" s="26"/>
+      <c r="A23" s="29"/>
+      <c r="B23" s="30"/>
       <c r="C23" s="10" t="s">
         <v>33</v>
       </c>
@@ -19963,25 +19966,25 @@
   <mergeCells count="37">
     <mergeCell ref="N3:U3"/>
     <mergeCell ref="A1:N1"/>
-    <mergeCell ref="N4:Y4"/>
     <mergeCell ref="C14:F14"/>
     <mergeCell ref="A21:O21"/>
+    <mergeCell ref="N4:Y4"/>
+    <mergeCell ref="C15:F15"/>
+    <mergeCell ref="C16:F16"/>
     <mergeCell ref="A22:O22"/>
     <mergeCell ref="A24:B24"/>
     <mergeCell ref="E4:J4"/>
     <mergeCell ref="G5:K5"/>
     <mergeCell ref="O14:S14"/>
     <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="C31:J31"/>
-    <mergeCell ref="C30:H30"/>
-    <mergeCell ref="C15:F15"/>
-    <mergeCell ref="C16:F16"/>
     <mergeCell ref="A36:B36"/>
     <mergeCell ref="D36:J36"/>
     <mergeCell ref="A25:B25"/>
     <mergeCell ref="A26:B26"/>
     <mergeCell ref="A27:B27"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="C31:J31"/>
+    <mergeCell ref="C30:H30"/>
     <mergeCell ref="A45:B45"/>
     <mergeCell ref="E45:K45"/>
     <mergeCell ref="C17:F17"/>
